--- a/lectures/lecture25/comparisons.xlsx
+++ b/lectures/lecture25/comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1sfu-my.sharepoint.com/personal/tjd_sfu_ca/Documents/courses/2022/120fall2022/public/cmpt120fall2022/lectures/lecture25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="8_{7A73501D-2697-40ED-92F4-5CDA90CE718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B368B85-28AB-49B9-B132-EA8A56DA3112}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{7A73501D-2697-40ED-92F4-5CDA90CE718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E09F113-86DB-4AFB-AA18-D1E515F7A036}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="1110" windowWidth="25740" windowHeight="19785" activeTab="3" xr2:uid="{66551588-0DA7-4B7A-9BA3-6AF9D74536E5}"/>
+    <workbookView xWindow="10620" yWindow="1110" windowWidth="25740" windowHeight="19785" xr2:uid="{66551588-0DA7-4B7A-9BA3-6AF9D74536E5}"/>
   </bookViews>
   <sheets>
     <sheet name="search real time" sheetId="5" r:id="rId1"/>
@@ -113,18 +113,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -142,12 +136,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -155,15 +148,13 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8623,16 +8614,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>109536</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395286</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9129,8 +9120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5E91EC-60CB-4637-A64B-B4D955CAE209}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9452,15 +9443,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <f>SUM(E2:E12)</f>
         <v>59.825000000000003</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <f t="shared" ref="F13:G13" si="4">SUM(F2:F12)</f>
         <v>580.09</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <f t="shared" si="4"/>
         <v>0.78999999999999981</v>
       </c>
@@ -9470,15 +9461,15 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <f>E13/SUM(E13:G13)</f>
         <v>9.3373705527504861E-2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <f>F13/SUM(E13:G13)</f>
         <v>0.90539327771751432</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8">
         <f>G13/SUM(E13:G13)</f>
         <v>1.2330167549808411E-3</v>
       </c>
@@ -10230,8 +10221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED161B6-AD3D-437E-A813-339DD7B84E3D}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11654,36 +11645,36 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="7">
+      <c r="B102" s="5">
         <f>SUM(B2:B101)</f>
         <v>3.9738799999999984E-2</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="5">
         <f t="shared" ref="C102:D102" si="0">SUM(C2:C101)</f>
         <v>1.3827868999999999</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="5">
         <f t="shared" si="0"/>
         <v>18.594684700000002</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="9">
+      <c r="B103" s="7">
         <f>B102/SUM(B102:D102)</f>
         <v>1.985231668444669E-3</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="7">
         <f>C102/SUM(B102:D102)</f>
         <v>6.9079900364138636E-2</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="7">
         <f>D102/SUM(B102:D102)</f>
         <v>0.92893486796741664</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/lectures/lecture25/comparisons.xlsx
+++ b/lectures/lecture25/comparisons.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1sfu-my.sharepoint.com/personal/tjd_sfu_ca/Documents/courses/2022/120fall2022/public/cmpt120fall2022/lectures/lecture25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{7A73501D-2697-40ED-92F4-5CDA90CE718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E09F113-86DB-4AFB-AA18-D1E515F7A036}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="8_{7A73501D-2697-40ED-92F4-5CDA90CE718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B160C058-7734-45AD-8479-49C1BB538298}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="1110" windowWidth="25740" windowHeight="19785" xr2:uid="{66551588-0DA7-4B7A-9BA3-6AF9D74536E5}"/>
+    <workbookView xWindow="5400" yWindow="585" windowWidth="25740" windowHeight="19785" activeTab="4" xr2:uid="{66551588-0DA7-4B7A-9BA3-6AF9D74536E5}"/>
   </bookViews>
   <sheets>
     <sheet name="search real time" sheetId="5" r:id="rId1"/>
     <sheet name="search real comps" sheetId="1" r:id="rId2"/>
     <sheet name="search theoretical" sheetId="2" r:id="rId3"/>
     <sheet name="sort real time" sheetId="7" r:id="rId4"/>
-    <sheet name="sort theoretical" sheetId="6" r:id="rId5"/>
+    <sheet name="sort real time (2)" sheetId="8" r:id="rId5"/>
+    <sheet name="sort theoretical" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t># of items</t>
   </si>
@@ -87,7 +88,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -150,7 +151,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -4859,6 +4860,1538 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Running</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Times of Two Sorting Algorithms</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sort real time (2)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mergesort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sort real time (2)'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sort real time (2)'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.362E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.192E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0669999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8270000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1425999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3538000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6417999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8810000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2445999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4204999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6224999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9031E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1459999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.493E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7074999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9699999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2005000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5839000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7628000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0721000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4297E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.6115999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8818999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.1193000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.365E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.7348E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9716999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.3393E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5277E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.8361000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.1585000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.3934000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.4779999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.9090999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.2634999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.5482999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0066500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0123399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.03274E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0841399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.08935E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.13066E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.15949E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1805899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1972699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2364999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.24539E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.29731E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3551799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.34678E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3753899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.3967500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.42919E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4522E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.48433E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.52584E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.54164E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5730399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6461900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6749699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7145799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6895500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.7320200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7446300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7712599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7927800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8261800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8448900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8864100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9230400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9368400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.98616E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.9954900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.02905E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.0674100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.0885999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1259799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.2266600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.2165000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.2296E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.2918000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.3008899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.3189299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.3299400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.3727999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.3928899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.4508200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.4582900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.5023400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.52386E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.59419E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.6806900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.6350800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.63491E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.7096499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.69701E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.7262999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.7569300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.7934899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8104799999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9CD-4F27-940B-AE64176FEBE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sort real time (2)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>selection sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'sort real time (2)'!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sort real time (2)'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>8.0599999999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1329999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9170000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.341E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9545000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5639E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3449999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1913000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1709E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2211000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3232999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7402999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9336000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2386100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.31194E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.48101E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6393100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8144400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0347299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2321000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4334000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7406E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.92333E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1150199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3686399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6293400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9323799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1964300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5428799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.7848500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.27211E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4263699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8464000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0827600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.4449300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.8271100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.2775099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.57414E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.9563400000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.6597400000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.3038800000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1078862</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.8052200000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1013607</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.11117390000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1109009</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.11585380000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.12637280000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.12802939999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.13313140000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1382825</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.1453894</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14634900000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.15475659999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.15788550000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1661416</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.176315</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.18051310000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.18729229999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.19331219999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.2028269</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.20132320000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.2116024</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.22314020000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.23966770000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.2411517</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.23630960000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.2446547</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.2748294</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.28590189999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.28096510000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.28664899999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.29992479999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.32065769999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.35850690000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.31895050000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.34689039999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.34608729999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.34440470000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.36258479999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.37448019999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.38302829999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.39837250000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.39837549999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.4039683</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.42546230000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.44606649999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.45598919999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.4554781</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.46051409999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.50349659999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.5254799</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.5085539</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.50247090000000005</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.52903299999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.54521410000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.54395769999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.56953980000000004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.56576289999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9CD-4F27-940B-AE64176FEBE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="258533695"/>
+        <c:axId val="258539935"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="258533695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258539935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258539935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258533695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6030,6 +7563,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8095,6 +9668,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8777,6 +10866,47 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BB751D-B1D9-3C7D-CECF-45F518D84331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9120,7 +11250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5E91EC-60CB-4637-A64B-B4D955CAE209}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -10221,7 +12351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED161B6-AD3D-437E-A813-339DD7B84E3D}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
@@ -11685,6 +13815,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90A4C6-52B2-4412-AEF9-02D1294DCAC8}">
+  <dimension ref="A1:D103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.362E-4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8.0599999999999994E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.192E-4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.4000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7.0669999999999999E-4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.1329999999999995E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8.8270000000000004E-4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.9170000000000004E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.1425999999999999E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.341E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.3538000000000001E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.9545000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.6417999999999999E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.5639E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.8810000000000001E-3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.3449999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2.2445999999999998E-3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.1913000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2.4204999999999999E-3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.1709E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2.6224999999999998E-3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.2211000000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1200</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.9031E-3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.3232999999999996E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1300</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.1459999999999999E-3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8.7402999999999995E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1400</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.493E-3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9.9336000000000008E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.7074999999999999E-3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.2386100000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1600</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.9699999999999996E-3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.31194E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1700</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4.2005000000000002E-3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.48101E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1800</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.5839000000000001E-3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.6393100000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4.7628000000000002E-3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.8144400000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5.0721000000000004E-3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.0347299999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2100</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5.4297E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.2321000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2200</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5.6115999999999996E-3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2.4334000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2300</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5.8818999999999998E-3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2.7406E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2400</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6.1193000000000003E-3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2.92333E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2500</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6.365E-3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3.1150199999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2600</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6.7348E-3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.3686399999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2700</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6.9716999999999999E-3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3.6293400000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2800</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7.3393E-3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3.9323799999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2900</v>
+      </c>
+      <c r="B30" s="3">
+        <v>7.5277E-3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4.1964300000000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3000</v>
+      </c>
+      <c r="B31" s="3">
+        <v>7.8361000000000004E-3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.5428799999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3100</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8.1585000000000008E-3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4.7848500000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3200</v>
+      </c>
+      <c r="B33" s="3">
+        <v>8.3934000000000005E-3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5.27211E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3300</v>
+      </c>
+      <c r="B34" s="3">
+        <v>8.4779999999999994E-3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5.4263699999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3400</v>
+      </c>
+      <c r="B35" s="3">
+        <v>8.9090999999999997E-3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5.8464000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3500</v>
+      </c>
+      <c r="B36" s="3">
+        <v>9.2634999999999992E-3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6.0827600000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3600</v>
+      </c>
+      <c r="B37" s="3">
+        <v>9.5482999999999991E-3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6.4449300000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3700</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.0066500000000001E-2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6.8271100000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3800</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1.0123399999999999E-2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>7.2775099999999995E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3900</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1.03274E-2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>7.57414E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4000</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1.0841399999999999E-2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>7.9563400000000006E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4100</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1.08935E-2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8.6597400000000005E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4200</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1.13066E-2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>9.3038800000000005E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4300</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1.15949E-2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.1078862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4400</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.1805899999999999E-2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>9.8052200000000006E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4500</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.1972699999999999E-2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.1013607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4600</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.2364999999999999E-2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.11117390000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4700</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.24539E-2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.1109009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4800</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.29731E-2</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.11585380000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4900</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1.3551799999999999E-2</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.12637280000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5000</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1.34678E-2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.12802939999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5100</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.3753899999999999E-2</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.13313140000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5200</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.3967500000000001E-2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.1382825</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5300</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1.42919E-2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.1453894</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5400</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.4522E-2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.14634900000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5500</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1.48433E-2</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.15475659999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5600</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1.52584E-2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.15788550000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5700</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1.54164E-2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.1661416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5800</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1.5730399999999999E-2</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.176315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5900</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1.6461900000000002E-2</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.18051310000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>6000</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1.6749699999999999E-2</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.18729229999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6100</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1.7145799999999999E-2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.19331219999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6200</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1.6895500000000001E-2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.2028269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6300</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1.7320200000000001E-2</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.20132320000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6400</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1.7446300000000001E-2</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.2116024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6500</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1.7712599999999998E-2</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.22314020000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6600</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1.7927800000000001E-2</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.23966770000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6700</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1.8261800000000002E-2</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.2411517</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6800</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1.8448900000000001E-2</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.23630960000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6900</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1.8864100000000002E-2</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.2446547</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>7000</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1.9230400000000002E-2</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.2748294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7100</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1.9368400000000001E-2</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.28590189999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>7200</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1.98616E-2</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.28096510000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>7300</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1.9954900000000001E-2</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.28664899999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>7400</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2.02905E-2</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.29992479999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7500</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2.0674100000000001E-2</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.32065769999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7600</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2.0885999999999998E-2</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.35850690000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7700</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2.1259799999999999E-2</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.31895050000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7800</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2.2266600000000001E-2</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.34689039999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7900</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2.2165000000000001E-2</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.34608729999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>8000</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2.2296E-2</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.34440470000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>8100</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2.2918000000000001E-2</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.36258479999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>8200</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2.3008899999999999E-2</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.37448019999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8300</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2.3189299999999999E-2</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.38302829999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8400</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2.3299400000000001E-2</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.39837250000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>8500</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2.3727999999999999E-2</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.39837549999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>8600</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2.3928899999999999E-2</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.4039683</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>8700</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2.4508200000000001E-2</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.42546230000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>8800</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2.4582900000000001E-2</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.44606649999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>8900</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2.5023400000000001E-2</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.45598919999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>9000</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2.52386E-2</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.4554781</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>9100</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2.59419E-2</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.46051409999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>9200</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2.6806900000000002E-2</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.50349659999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>9300</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2.6350800000000001E-2</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.5254799</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>9400</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2.63491E-2</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.5085539</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>9500</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2.7096499999999999E-2</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.50247090000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>9600</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2.69701E-2</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.52903299999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>9700</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2.7262999999999999E-2</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.54521410000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>9800</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2.7569300000000001E-2</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.54395769999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>9900</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2.7934899999999999E-2</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.56953980000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10000</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2.8104799999999999E-2</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.56576289999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="5">
+        <f t="shared" ref="B102:C102" si="0">SUM(B2:B101)</f>
+        <v>1.3827868999999999</v>
+      </c>
+      <c r="C102" s="5">
+        <f t="shared" si="0"/>
+        <v>18.594684700000002</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="7">
+        <f>B102/SUM(B102:C102)</f>
+        <v>6.9217312765445252E-2</v>
+      </c>
+      <c r="C103" s="7">
+        <f>C102/SUM(B102:C102)</f>
+        <v>0.93078268723455482</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FB1F09-49B0-49D5-80B2-340543B1605D}">
   <dimension ref="A2:C42"/>
   <sheetViews>
